--- a/medicine/Mort/Vous_descendez__/Vous_descendez__.xlsx
+++ b/medicine/Mort/Vous_descendez__/Vous_descendez__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vous_descendez_%3F</t>
+          <t>Vous_descendez_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vous descendez ? (titre original : A Long Way Down) est un roman de l'écrivain britannique Nick Hornby originellement publié en 2005.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vous_descendez_%3F</t>
+          <t>Vous_descendez_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Thème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une comédie noire traitant du thème du suicide et de la dépression. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vous_descendez_%3F</t>
+          <t>Vous_descendez_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman est adapté au cinéma en 2013 par Pascal Chaumeil sous le nom A Long Way Down[1],[2].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman est adapté au cinéma en 2013 par Pascal Chaumeil sous le nom A Long Way Down,.  
 </t>
         </is>
       </c>
